--- a/data/work_schedules.xlsx
+++ b/data/work_schedules.xlsx
@@ -439,7 +439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E590"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="A560" sqref="A560"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8794,7 +8796,7 @@
         <v>45294</v>
       </c>
       <c r="C562" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D562" s="1">
         <v>45294</v>
@@ -8811,7 +8813,7 @@
         <v>45295</v>
       </c>
       <c r="C563" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D563" s="1">
         <v>45295</v>
@@ -8828,7 +8830,7 @@
         <v>45296</v>
       </c>
       <c r="C564" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D564" s="1">
         <v>45296</v>
@@ -8871,7 +8873,7 @@
         <v>45299</v>
       </c>
       <c r="C567" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D567" s="1">
         <v>45299</v>
@@ -8888,7 +8890,7 @@
         <v>45300</v>
       </c>
       <c r="C568" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D568" s="1">
         <v>45300</v>
@@ -8905,7 +8907,7 @@
         <v>45301</v>
       </c>
       <c r="C569" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D569" s="1">
         <v>45301</v>
@@ -8922,7 +8924,7 @@
         <v>45302</v>
       </c>
       <c r="C570" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D570" s="1">
         <v>45302</v>
@@ -8939,7 +8941,7 @@
         <v>45303</v>
       </c>
       <c r="C571" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D571" s="1">
         <v>45303</v>
@@ -8982,7 +8984,7 @@
         <v>45306</v>
       </c>
       <c r="C574" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D574" s="1">
         <v>45306</v>
@@ -8999,7 +9001,7 @@
         <v>45307</v>
       </c>
       <c r="C575" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D575" s="1">
         <v>45307</v>
@@ -9016,7 +9018,7 @@
         <v>45308</v>
       </c>
       <c r="C576" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D576" s="1">
         <v>45308</v>
@@ -9033,7 +9035,7 @@
         <v>45309</v>
       </c>
       <c r="C577" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D577" s="1">
         <v>45309</v>
@@ -9050,7 +9052,7 @@
         <v>45310</v>
       </c>
       <c r="C578" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D578" s="1">
         <v>45310</v>
@@ -9093,7 +9095,7 @@
         <v>45313</v>
       </c>
       <c r="C581" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D581" s="1">
         <v>45313</v>
@@ -9110,7 +9112,7 @@
         <v>45314</v>
       </c>
       <c r="C582" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D582" s="1">
         <v>45314</v>
@@ -9127,7 +9129,7 @@
         <v>45315</v>
       </c>
       <c r="C583" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D583" s="1">
         <v>45315</v>
@@ -9144,7 +9146,7 @@
         <v>45316</v>
       </c>
       <c r="C584" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D584" s="1">
         <v>45316</v>
@@ -9161,7 +9163,7 @@
         <v>45317</v>
       </c>
       <c r="C585" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D585" s="1">
         <v>45317</v>
@@ -9204,7 +9206,7 @@
         <v>45320</v>
       </c>
       <c r="C588" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D588" s="1">
         <v>45320</v>
@@ -9221,7 +9223,7 @@
         <v>45321</v>
       </c>
       <c r="C589" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D589" s="1">
         <v>45321</v>
@@ -9238,7 +9240,7 @@
         <v>45322</v>
       </c>
       <c r="C590" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D590" s="1">
         <v>45322</v>
